--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvata\Desktop\CS HW\Semester 6\AI\Labs\GitLab\Lab4\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Lab4\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1720BD-58E6-4D18-92B6-3CDDE5A886C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB1DBFA-C182-481C-B19C-192E64659DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="תוצאות" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Test</t>
-  </si>
-  <si>
-    <t>BBS</t>
-  </si>
-  <si>
-    <t>ULS</t>
   </si>
   <si>
     <t>OPT</t>
@@ -133,6 +127,12 @@
   </si>
   <si>
     <t>WEISH30.DAT</t>
+  </si>
+  <si>
+    <t>Fractional Search</t>
+  </si>
+  <si>
+    <t>Unlimited Sack</t>
   </si>
 </sst>
 </file>
@@ -299,7 +299,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BBS</c:v>
+                  <c:v>Fractional Search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -443,7 +443,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ULS</c:v>
+                  <c:v>Unlimited Sack</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -863,7 +863,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -1045,7 +1045,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BBS</c:v>
+                  <c:v>Fractional Search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1195,7 +1195,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ULS</c:v>
+                  <c:v>Unlimited Sack</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1627,7 +1627,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -1809,7 +1809,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BBS</c:v>
+                  <c:v>Fractional Search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1947,7 +1947,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ULS</c:v>
+                  <c:v>Unlimited Sack</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2355,7 +2355,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -2469,7 +2469,7 @@
                 <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
                 <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               </a:rPr>
-              <a:t>השוואה בין ההיוריסטיקות לפי</a:t>
+              <a:t>השוואה לפי</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="he-IL" baseline="0">
@@ -2527,9 +2527,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.2248099119115744E-2"/>
-          <c:y val="0.14713988698396721"/>
-          <c:w val="0.91579885075158651"/>
+          <c:x val="5.965650270626828E-2"/>
+          <c:y val="0.13227048929131013"/>
+          <c:w val="0.90213600858187992"/>
           <c:h val="0.55065220008345406"/>
         </c:manualLayout>
       </c:layout>
@@ -2546,7 +2546,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BBS</c:v>
+                  <c:v>Fractional Search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2600,7 +2600,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>תוצאות!$A$2:$A$33</c:f>
+              <c:f>תוצאות!$A$2:$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -2698,10 +2698,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>תוצאות!$E$2:$E$33</c:f>
+              <c:f>תוצאות!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.95618556701030932</c:v>
                 </c:pt>
@@ -2810,7 +2810,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ULS</c:v>
+                  <c:v>Unlimited Sack</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2864,7 +2864,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>תוצאות!$A$2:$A$33</c:f>
+              <c:f>תוצאות!$A$2:$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -2962,10 +2962,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>תוצאות!$F$2:$F$33</c:f>
+              <c:f>תוצאות!$F$2:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.82860824742268047</c:v>
                 </c:pt>
@@ -3195,6 +3195,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32325150799733243"/>
+          <c:y val="0.88522701029231965"/>
+          <c:w val="0.34370006367935535"/>
+          <c:h val="9.2469012252845151E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3208,7 +3218,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -5534,16 +5544,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>831548</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>339810</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>94948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>21924</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>143630</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>10297</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5892,36 +5902,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="74" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="1" max="1" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" customWidth="1"/>
+    <col min="6" max="6" width="13.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>742</v>
@@ -5933,17 +5943,17 @@
         <v>776</v>
       </c>
       <c r="E2" s="1">
-        <f>B2/D2</f>
+        <f t="shared" ref="E2:E31" si="0">B2/D2</f>
         <v>0.95618556701030932</v>
       </c>
       <c r="F2" s="1">
-        <f>C2/D2</f>
+        <f t="shared" ref="F2:F31" si="1">C2/D2</f>
         <v>0.82860824742268047</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1025</v>
@@ -5955,17 +5965,17 @@
         <v>1035</v>
       </c>
       <c r="E3" s="1">
-        <f>B3/D3</f>
+        <f t="shared" si="0"/>
         <v>0.99033816425120769</v>
       </c>
       <c r="F3" s="1">
-        <f>C3/D3</f>
+        <f t="shared" si="1"/>
         <v>0.87053140096618353</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2139</v>
@@ -5977,17 +5987,17 @@
         <v>2139</v>
       </c>
       <c r="E4" s="1">
-        <f>B4/D4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <f>C4/D4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2922</v>
@@ -5999,17 +6009,17 @@
         <v>3186</v>
       </c>
       <c r="E5" s="1">
-        <f>B5/D5</f>
+        <f t="shared" si="0"/>
         <v>0.91713747645951038</v>
       </c>
       <c r="F5" s="1">
-        <f>C5/D5</f>
+        <f t="shared" si="1"/>
         <v>0.96547394852479596</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>3386</v>
@@ -6021,17 +6031,17 @@
         <v>3418</v>
       </c>
       <c r="E6" s="1">
-        <f>B6/D6</f>
+        <f t="shared" si="0"/>
         <v>0.99063779988297251</v>
       </c>
       <c r="F6" s="1">
-        <f>C6/D6</f>
+        <f t="shared" si="1"/>
         <v>0.99590403744880052</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>4015</v>
@@ -6043,17 +6053,17 @@
         <v>4015</v>
       </c>
       <c r="E7" s="1">
-        <f>B7/D7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <f>C7/D7</f>
+        <f t="shared" si="1"/>
         <v>0.96014943960149435</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>4115</v>
@@ -6065,17 +6075,17 @@
         <v>4115</v>
       </c>
       <c r="E8" s="1">
-        <f>B8/D8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <f>C8/D8</f>
+        <f t="shared" si="1"/>
         <v>0.98469015795868775</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>5605</v>
@@ -6087,17 +6097,17 @@
         <v>5605</v>
       </c>
       <c r="E9" s="1">
-        <f>B9/D9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f>C9/D9</f>
+        <f t="shared" si="1"/>
         <v>0.86547725245316687</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>6110</v>
@@ -6109,17 +6119,17 @@
         <v>6120</v>
       </c>
       <c r="E10" s="1">
-        <f>B10/D10</f>
+        <f t="shared" si="0"/>
         <v>0.99836601307189543</v>
       </c>
       <c r="F10" s="1">
-        <f>C10/D10</f>
+        <f t="shared" si="1"/>
         <v>0.91339869281045749</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>6339</v>
@@ -6131,17 +6141,17 @@
         <v>6339</v>
       </c>
       <c r="E11" s="1">
-        <f>B11/D11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <f>C11/D11</f>
+        <f t="shared" si="1"/>
         <v>0.72992585581321978</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>6954</v>
@@ -6153,17 +6163,17 @@
         <v>6954</v>
       </c>
       <c r="E12" s="1">
-        <f>B12/D12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <f>C12/D12</f>
+        <f t="shared" si="1"/>
         <v>0.67874604544147255</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>7246</v>
@@ -6175,17 +6185,17 @@
         <v>7289</v>
       </c>
       <c r="E13" s="1">
-        <f>B13/D13</f>
+        <f t="shared" si="0"/>
         <v>0.99410069968445602</v>
       </c>
       <c r="F13" s="1">
-        <f>C13/D13</f>
+        <f t="shared" si="1"/>
         <v>0.70023322815200983</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>7554</v>
@@ -6197,17 +6207,17 @@
         <v>7772</v>
       </c>
       <c r="E14" s="1">
-        <f>B14/D14</f>
+        <f t="shared" si="0"/>
         <v>0.97195059186824495</v>
       </c>
       <c r="F14" s="1">
-        <f>C14/D14</f>
+        <f t="shared" si="1"/>
         <v>0.55725681935151827</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>8254</v>
@@ -6219,17 +6229,17 @@
         <v>8344</v>
       </c>
       <c r="E15" s="1">
-        <f>B15/D15</f>
+        <f t="shared" si="0"/>
         <v>0.98921380632790024</v>
       </c>
       <c r="F15" s="1">
-        <f>C15/D15</f>
+        <f t="shared" si="1"/>
         <v>0.60091083413231061</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>8549</v>
@@ -6241,17 +6251,17 @@
         <v>8722</v>
       </c>
       <c r="E16" s="1">
-        <f>B16/D16</f>
+        <f t="shared" si="0"/>
         <v>0.98016509974776422</v>
       </c>
       <c r="F16" s="1">
-        <f>C16/D16</f>
+        <f t="shared" si="1"/>
         <v>0.61213024535656957</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>6051</v>
@@ -6263,17 +6273,17 @@
         <v>8947</v>
       </c>
       <c r="E17" s="1">
-        <f>B17/D17</f>
+        <f t="shared" si="0"/>
         <v>0.67631608360344253</v>
       </c>
       <c r="F17" s="1">
-        <f>C17/D17</f>
+        <f t="shared" si="1"/>
         <v>0.66938638649826754</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>9430</v>
@@ -6285,17 +6295,17 @@
         <v>9450</v>
       </c>
       <c r="E18" s="1">
-        <f>B18/D18</f>
+        <f t="shared" si="0"/>
         <v>0.99788359788359793</v>
       </c>
       <c r="F18" s="1">
-        <f>C18/D18</f>
+        <f t="shared" si="1"/>
         <v>0.62698412698412698</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>9560</v>
@@ -6307,17 +6317,17 @@
         <v>9580</v>
       </c>
       <c r="E19" s="1">
-        <f>B19/D19</f>
+        <f t="shared" si="0"/>
         <v>0.9979123173277662</v>
       </c>
       <c r="F19" s="1">
-        <f>C19/D19</f>
+        <f t="shared" si="1"/>
         <v>0.67672233820459293</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>9903</v>
@@ -6329,17 +6339,17 @@
         <v>9939</v>
       </c>
       <c r="E20" s="1">
-        <f>B20/D20</f>
+        <f t="shared" si="0"/>
         <v>0.99637790522185332</v>
       </c>
       <c r="F20" s="1">
-        <f>C20/D20</f>
+        <f t="shared" si="1"/>
         <v>0.60821008149713252</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>10403</v>
@@ -6351,17 +6361,17 @@
         <v>10618</v>
       </c>
       <c r="E21" s="1">
-        <f>B21/D21</f>
+        <f t="shared" si="0"/>
         <v>0.97975136560557541</v>
       </c>
       <c r="F21" s="1">
-        <f>C21/D21</f>
+        <f t="shared" si="1"/>
         <v>0.99077038990393673</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>11163</v>
@@ -6373,17 +6383,17 @@
         <v>11191</v>
       </c>
       <c r="E22" s="1">
-        <f>B22/D22</f>
+        <f t="shared" si="0"/>
         <v>0.99749798945581269</v>
       </c>
       <c r="F22" s="1">
-        <f>C22/D22</f>
+        <f t="shared" si="1"/>
         <v>0.60387811634349031</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>87061</v>
@@ -6395,17 +6405,17 @@
         <v>87061</v>
       </c>
       <c r="E23" s="1">
-        <f>B23/D23</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <f>C23/D23</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>95117</v>
@@ -6417,17 +6427,17 @@
         <v>95677</v>
       </c>
       <c r="E24" s="1">
-        <f>B24/D24</f>
+        <f t="shared" si="0"/>
         <v>0.99414697367183336</v>
       </c>
       <c r="F24" s="1">
-        <f>C24/D24</f>
+        <f t="shared" si="1"/>
         <v>0.96467280537642275</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <v>98506</v>
@@ -6439,17 +6449,17 @@
         <v>98796</v>
       </c>
       <c r="E25" s="1">
-        <f>B25/D25</f>
+        <f t="shared" si="0"/>
         <v>0.99706465848819792</v>
       </c>
       <c r="F25" s="1">
-        <f>C25/D25</f>
+        <f t="shared" si="1"/>
         <v>0.86211992388355807</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>119337</v>
@@ -6461,17 +6471,17 @@
         <v>119337</v>
       </c>
       <c r="E26" s="1">
-        <f>B26/D26</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <f>C26/D26</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>130053</v>
@@ -6483,17 +6493,17 @@
         <v>130623</v>
       </c>
       <c r="E27" s="1">
-        <f>B27/D27</f>
+        <f t="shared" si="0"/>
         <v>0.99563629682368338</v>
       </c>
       <c r="F27" s="1">
-        <f>C27/D27</f>
+        <f t="shared" si="1"/>
         <v>0.94071488175895512</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28">
         <v>130213</v>
@@ -6505,17 +6515,17 @@
         <v>130883</v>
       </c>
       <c r="E28" s="1">
-        <f>B28/D28</f>
+        <f t="shared" si="0"/>
         <v>0.99488092418419505</v>
       </c>
       <c r="F28" s="1">
-        <f>C28/D28</f>
+        <f t="shared" si="1"/>
         <v>0.97829359045865394</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>141278</v>
@@ -6527,17 +6537,17 @@
         <v>141278</v>
       </c>
       <c r="E29" s="1">
-        <f>B29/D29</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <f>C29/D29</f>
+        <f t="shared" si="1"/>
         <v>0.98957374821274369</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30">
         <v>542629</v>
@@ -6549,17 +6559,17 @@
         <v>624319</v>
       </c>
       <c r="E30" s="1">
-        <f>B30/D30</f>
+        <f t="shared" si="0"/>
         <v>0.86915342957686692</v>
       </c>
       <c r="F30" s="1">
-        <f>C30/D30</f>
+        <f t="shared" si="1"/>
         <v>0.92901385349476795</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B31">
         <v>1094917</v>
@@ -6571,13 +6581,16 @@
         <v>1095445</v>
       </c>
       <c r="E31" s="1">
-        <f>B31/D31</f>
+        <f t="shared" si="0"/>
         <v>0.99951800409879088</v>
       </c>
       <c r="F31" s="1">
-        <f>C31/D31</f>
+        <f t="shared" si="1"/>
         <v>0.99928522198741154</v>
       </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
